--- a/Ребалансировка Ставицкий.xlsx
+++ b/Ребалансировка Ставицкий.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,6 +16,9 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
 </file>
@@ -496,6 +499,440 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>RU000A104ZC9</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>КАМАЗ, БО-П10</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>RUB</v>
+          </cell>
+          <cell r="E42" t="str">
+            <v>18.07.2025 (24.07.2024)</v>
+          </cell>
+          <cell r="F42">
+            <v>0.108</v>
+          </cell>
+          <cell r="G42">
+            <v>8.9311216685963951E-2</v>
+          </cell>
+          <cell r="H42">
+            <v>1.5518543606345818</v>
+          </cell>
+          <cell r="I42">
+            <v>1000</v>
+          </cell>
+          <cell r="J42">
+            <v>103.66</v>
+          </cell>
+          <cell r="K42">
+            <v>14.5</v>
+          </cell>
+          <cell r="L42">
+            <v>2440</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>RU000A1035D0</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>Синара-Транспортные Машины, 001Р-01</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>RUB</v>
+          </cell>
+          <cell r="E43">
+            <v>45436</v>
+          </cell>
+          <cell r="F43">
+            <v>8.1000000000000003E-2</v>
+          </cell>
+          <cell r="G43">
+            <v>9.5740977234957739E-2</v>
+          </cell>
+          <cell r="H43">
+            <v>1.4531045522230197</v>
+          </cell>
+          <cell r="I43">
+            <v>1000</v>
+          </cell>
+          <cell r="J43">
+            <v>98.04</v>
+          </cell>
+          <cell r="K43">
+            <v>23.3</v>
+          </cell>
+          <cell r="L43">
+            <v>2540</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>RU000A1051U1</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>МТС-Банк, 001P-02</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>RUB</v>
+          </cell>
+          <cell r="E44">
+            <v>45870</v>
+          </cell>
+          <cell r="F44">
+            <v>9.5500000000000002E-2</v>
+          </cell>
+          <cell r="G44">
+            <v>9.9164901418835688E-2</v>
+          </cell>
+          <cell r="H44">
+            <v>2.3120164437556432</v>
+          </cell>
+          <cell r="I44">
+            <v>1000</v>
+          </cell>
+          <cell r="J44">
+            <v>99.95</v>
+          </cell>
+          <cell r="K44">
+            <v>9.16</v>
+          </cell>
+          <cell r="L44">
+            <v>2510</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>RU000A1050H0</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>ЕАБР, 003Р-001</v>
+          </cell>
+          <cell r="D45" t="str">
+            <v>RUB</v>
+          </cell>
+          <cell r="E45">
+            <v>45867</v>
+          </cell>
+          <cell r="F45">
+            <v>9.35E-2</v>
+          </cell>
+          <cell r="G45">
+            <v>9.6164269040648578E-2</v>
+          </cell>
+          <cell r="H45">
+            <v>2.3476745458324824</v>
+          </cell>
+          <cell r="I45">
+            <v>1000</v>
+          </cell>
+          <cell r="J45">
+            <v>99.87</v>
+          </cell>
+          <cell r="K45">
+            <v>9.73</v>
+          </cell>
+          <cell r="L45">
+            <v>2520</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>RU000A101GZ6</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>Уралкалий, ПБО-06-P</v>
+          </cell>
+          <cell r="D46" t="str">
+            <v>RUB</v>
+          </cell>
+          <cell r="E46">
+            <v>45713</v>
+          </cell>
+          <cell r="F46">
+            <v>6.8500000000000005E-2</v>
+          </cell>
+          <cell r="G46">
+            <v>8.6349609683026698E-2</v>
+          </cell>
+          <cell r="H46">
+            <v>2.1199711993002186</v>
+          </cell>
+          <cell r="I46">
+            <v>1000</v>
+          </cell>
+          <cell r="J46">
+            <v>96.49</v>
+          </cell>
+          <cell r="K46">
+            <v>1.88</v>
+          </cell>
+          <cell r="L46">
+            <v>2640</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>RU000A1032P1</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>СФО ВТБ РКС-1, 01</v>
+          </cell>
+          <cell r="D47" t="str">
+            <v>RUB</v>
+          </cell>
+          <cell r="E47">
+            <v>47818</v>
+          </cell>
+          <cell r="F47">
+            <v>0.08</v>
+          </cell>
+          <cell r="G47">
+            <v>0.1061</v>
+          </cell>
+          <cell r="H47">
+            <v>2.7</v>
+          </cell>
+          <cell r="I47">
+            <v>1000</v>
+          </cell>
+          <cell r="J47">
+            <v>95.58</v>
+          </cell>
+          <cell r="K47">
+            <v>1.75</v>
+          </cell>
+          <cell r="L47">
+            <v>2649.9477544377046</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>RU000A104V75</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>Почта России, БО-002P-01</v>
+          </cell>
+          <cell r="D48" t="str">
+            <v>RUB</v>
+          </cell>
+          <cell r="E48" t="str">
+            <v>26.05.2032 (07.06.2027)</v>
+          </cell>
+          <cell r="F48">
+            <v>0.114</v>
+          </cell>
+          <cell r="G48">
+            <v>9.0030623337480242E-2</v>
+          </cell>
+          <cell r="H48">
+            <v>3.4303758934176956</v>
+          </cell>
+          <cell r="I48">
+            <v>1000</v>
+          </cell>
+          <cell r="J48">
+            <v>109.82</v>
+          </cell>
+          <cell r="K48">
+            <v>29.05</v>
+          </cell>
+          <cell r="L48">
+            <v>2250</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>RU000A103943</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>Аэрофлот, П01-БО-01</v>
+          </cell>
+          <cell r="D49" t="str">
+            <v>RUB</v>
+          </cell>
+          <cell r="E49">
+            <v>46184</v>
+          </cell>
+          <cell r="F49">
+            <v>8.3500000000000005E-2</v>
+          </cell>
+          <cell r="G49">
+            <v>9.5700588088832306E-2</v>
+          </cell>
+          <cell r="H49">
+            <v>2.9115280564271981</v>
+          </cell>
+          <cell r="I49">
+            <v>1000</v>
+          </cell>
+          <cell r="J49">
+            <v>97.19</v>
+          </cell>
+          <cell r="K49">
+            <v>19.45</v>
+          </cell>
+          <cell r="L49">
+            <v>2570</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>RU000A104Y15</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>Белуга Групп, БО-П05</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>RUB</v>
+          </cell>
+          <cell r="E50">
+            <v>46574</v>
+          </cell>
+          <cell r="F50">
+            <v>0.1085</v>
+          </cell>
+          <cell r="G50">
+            <v>9.8563026836461828E-2</v>
+          </cell>
+          <cell r="H50">
+            <v>3.279749134839014</v>
+          </cell>
+          <cell r="I50">
+            <v>1000</v>
+          </cell>
+          <cell r="J50">
+            <v>104.32</v>
+          </cell>
+          <cell r="K50">
+            <v>17.54</v>
+          </cell>
+          <cell r="L50">
+            <v>2420</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>RU000A103QK3</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>Мэйл.Ру Финанс, 001Р-01</v>
+          </cell>
+          <cell r="D51" t="str">
+            <v>RUB</v>
+          </cell>
+          <cell r="E51">
+            <v>46280</v>
+          </cell>
+          <cell r="F51">
+            <v>7.9000000000000001E-2</v>
+          </cell>
+          <cell r="G51">
+            <v>9.2973438894422694E-2</v>
+          </cell>
+          <cell r="H51">
+            <v>3.0919012173007627</v>
+          </cell>
+          <cell r="I51">
+            <v>1000</v>
+          </cell>
+          <cell r="J51">
+            <v>96.06</v>
+          </cell>
+          <cell r="K51">
+            <v>37.01</v>
+          </cell>
+          <cell r="L51">
+            <v>2550</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>RU000A104JQ3</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>Группа компаний Самолет, БО-П11</v>
+          </cell>
+          <cell r="D52" t="str">
+            <v>RUB</v>
+          </cell>
+          <cell r="E52" t="str">
+            <v>08.02.2028 (14.02.2025)</v>
+          </cell>
+          <cell r="F52">
+            <v>0.127</v>
+          </cell>
+          <cell r="G52">
+            <v>0.13198355497401121</v>
+          </cell>
+          <cell r="H52">
+            <v>1.8969374136072388</v>
+          </cell>
+          <cell r="I52">
+            <v>1000</v>
+          </cell>
+          <cell r="J52">
+            <v>99.8</v>
+          </cell>
+          <cell r="K52">
+            <v>8.35</v>
+          </cell>
+          <cell r="L52">
+            <v>1270</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>RU000A102T63</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>Группа ЛСР (ПАО), 001P-06</v>
+          </cell>
+          <cell r="D53" t="str">
+            <v>RUB</v>
+          </cell>
+          <cell r="E53">
+            <v>46077</v>
+          </cell>
+          <cell r="F53">
+            <v>0.08</v>
+          </cell>
+          <cell r="G53">
+            <v>0.10539378716144934</v>
+          </cell>
+          <cell r="H53">
+            <v>2.1585656067825068</v>
+          </cell>
+          <cell r="I53">
+            <v>1000</v>
+          </cell>
+          <cell r="J53">
+            <v>95.09</v>
+          </cell>
+          <cell r="K53">
+            <v>2.19</v>
+          </cell>
+          <cell r="L53">
+            <v>1340</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -794,13 +1231,13 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="66.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" style="2" hidden="1" customWidth="1"/>
@@ -919,7 +1356,8 @@
         <v>12</v>
       </c>
       <c r="Q2" s="15">
-        <v>4089</v>
+        <f>VLOOKUP(F2,'[1]1'!$B$42:$L$53,11,FALSE)</f>
+        <v>2540</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="63" x14ac:dyDescent="0.35">
@@ -969,7 +1407,8 @@
         <v>45</v>
       </c>
       <c r="Q3" s="15">
-        <v>4037</v>
+        <f>VLOOKUP(F3,'[1]1'!$B$42:$L$53,11,FALSE)</f>
+        <v>2510</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="105" x14ac:dyDescent="0.35">
@@ -1021,7 +1460,8 @@
         <v>12</v>
       </c>
       <c r="Q4" s="15">
-        <v>4047</v>
+        <f>VLOOKUP(F4,'[1]1'!$B$42:$L$53,11,FALSE)</f>
+        <v>2520</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="63" x14ac:dyDescent="0.35">
@@ -1073,7 +1513,8 @@
         <v>20</v>
       </c>
       <c r="Q5" s="15">
-        <v>4244</v>
+        <f>VLOOKUP(F5,'[1]1'!$B$42:$L$53,11,FALSE)</f>
+        <v>2640</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="63" x14ac:dyDescent="0.35">
@@ -1123,7 +1564,8 @@
         <v>34</v>
       </c>
       <c r="Q6" s="15">
-        <v>4268</v>
+        <f>VLOOKUP(F6,'[1]1'!$B$42:$L$53,11,FALSE)</f>
+        <v>2649.9477544377046</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="63" x14ac:dyDescent="0.35">
@@ -1175,7 +1617,8 @@
         <v>55</v>
       </c>
       <c r="Q7" s="15">
-        <v>4132</v>
+        <f>VLOOKUP(F7,'[1]1'!$B$42:$L$53,11,FALSE)</f>
+        <v>2570</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="63" x14ac:dyDescent="0.35">
@@ -1227,7 +1670,8 @@
         <v>45</v>
       </c>
       <c r="Q8" s="15">
-        <v>3894</v>
+        <f>VLOOKUP(F8,'[1]1'!$B$42:$L$53,11,FALSE)</f>
+        <v>2420</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="63" x14ac:dyDescent="0.35">
@@ -1279,7 +1723,8 @@
         <v>59</v>
       </c>
       <c r="Q9" s="15">
-        <v>4102</v>
+        <f>VLOOKUP(F9,'[1]1'!$B$42:$L$53,11,FALSE)</f>
+        <v>2550</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="84" x14ac:dyDescent="0.35">
@@ -1331,7 +1776,8 @@
         <v>65</v>
       </c>
       <c r="Q10" s="15">
-        <v>2155</v>
+        <f>VLOOKUP(F10,'[1]1'!$B$42:$L$53,11,FALSE)</f>
+        <v>1340</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="84" x14ac:dyDescent="0.35">
@@ -1382,7 +1828,8 @@
         <v>38</v>
       </c>
       <c r="Q11" s="15">
-        <v>2037</v>
+        <f>VLOOKUP(F11,'[1]1'!$B$42:$L$53,11,FALSE)</f>
+        <v>1270</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="126" x14ac:dyDescent="0.35">
@@ -1434,7 +1881,8 @@
         <v>45</v>
       </c>
       <c r="Q12" s="15">
-        <v>3925</v>
+        <f>VLOOKUP(F12,'[1]1'!$B$42:$L$53,11,FALSE)</f>
+        <v>2440</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="63" x14ac:dyDescent="0.35">
@@ -1484,10 +1932,11 @@
         <v>12</v>
       </c>
       <c r="Q13" s="15">
-        <v>3620</v>
+        <f>VLOOKUP(F13,'[1]1'!$B$42:$L$53,11,FALSE)</f>
+        <v>2250</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="84" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="63" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1524,8 +1973,8 @@
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="12"/>
-      <c r="Q14" s="15" t="e">
-        <v>#N/A</v>
+      <c r="Q14" s="15">
+        <v>36500</v>
       </c>
     </row>
   </sheetData>

--- a/Ребалансировка Ставицкий.xlsx
+++ b/Ребалансировка Ставицкий.xlsx
@@ -16,9 +16,6 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
 </file>
@@ -499,440 +496,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="42">
-          <cell r="B42" t="str">
-            <v>RU000A104ZC9</v>
-          </cell>
-          <cell r="C42" t="str">
-            <v>КАМАЗ, БО-П10</v>
-          </cell>
-          <cell r="D42" t="str">
-            <v>RUB</v>
-          </cell>
-          <cell r="E42" t="str">
-            <v>18.07.2025 (24.07.2024)</v>
-          </cell>
-          <cell r="F42">
-            <v>0.108</v>
-          </cell>
-          <cell r="G42">
-            <v>8.9311216685963951E-2</v>
-          </cell>
-          <cell r="H42">
-            <v>1.5518543606345818</v>
-          </cell>
-          <cell r="I42">
-            <v>1000</v>
-          </cell>
-          <cell r="J42">
-            <v>103.66</v>
-          </cell>
-          <cell r="K42">
-            <v>14.5</v>
-          </cell>
-          <cell r="L42">
-            <v>2440</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43" t="str">
-            <v>RU000A1035D0</v>
-          </cell>
-          <cell r="C43" t="str">
-            <v>Синара-Транспортные Машины, 001Р-01</v>
-          </cell>
-          <cell r="D43" t="str">
-            <v>RUB</v>
-          </cell>
-          <cell r="E43">
-            <v>45436</v>
-          </cell>
-          <cell r="F43">
-            <v>8.1000000000000003E-2</v>
-          </cell>
-          <cell r="G43">
-            <v>9.5740977234957739E-2</v>
-          </cell>
-          <cell r="H43">
-            <v>1.4531045522230197</v>
-          </cell>
-          <cell r="I43">
-            <v>1000</v>
-          </cell>
-          <cell r="J43">
-            <v>98.04</v>
-          </cell>
-          <cell r="K43">
-            <v>23.3</v>
-          </cell>
-          <cell r="L43">
-            <v>2540</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44" t="str">
-            <v>RU000A1051U1</v>
-          </cell>
-          <cell r="C44" t="str">
-            <v>МТС-Банк, 001P-02</v>
-          </cell>
-          <cell r="D44" t="str">
-            <v>RUB</v>
-          </cell>
-          <cell r="E44">
-            <v>45870</v>
-          </cell>
-          <cell r="F44">
-            <v>9.5500000000000002E-2</v>
-          </cell>
-          <cell r="G44">
-            <v>9.9164901418835688E-2</v>
-          </cell>
-          <cell r="H44">
-            <v>2.3120164437556432</v>
-          </cell>
-          <cell r="I44">
-            <v>1000</v>
-          </cell>
-          <cell r="J44">
-            <v>99.95</v>
-          </cell>
-          <cell r="K44">
-            <v>9.16</v>
-          </cell>
-          <cell r="L44">
-            <v>2510</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45" t="str">
-            <v>RU000A1050H0</v>
-          </cell>
-          <cell r="C45" t="str">
-            <v>ЕАБР, 003Р-001</v>
-          </cell>
-          <cell r="D45" t="str">
-            <v>RUB</v>
-          </cell>
-          <cell r="E45">
-            <v>45867</v>
-          </cell>
-          <cell r="F45">
-            <v>9.35E-2</v>
-          </cell>
-          <cell r="G45">
-            <v>9.6164269040648578E-2</v>
-          </cell>
-          <cell r="H45">
-            <v>2.3476745458324824</v>
-          </cell>
-          <cell r="I45">
-            <v>1000</v>
-          </cell>
-          <cell r="J45">
-            <v>99.87</v>
-          </cell>
-          <cell r="K45">
-            <v>9.73</v>
-          </cell>
-          <cell r="L45">
-            <v>2520</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46" t="str">
-            <v>RU000A101GZ6</v>
-          </cell>
-          <cell r="C46" t="str">
-            <v>Уралкалий, ПБО-06-P</v>
-          </cell>
-          <cell r="D46" t="str">
-            <v>RUB</v>
-          </cell>
-          <cell r="E46">
-            <v>45713</v>
-          </cell>
-          <cell r="F46">
-            <v>6.8500000000000005E-2</v>
-          </cell>
-          <cell r="G46">
-            <v>8.6349609683026698E-2</v>
-          </cell>
-          <cell r="H46">
-            <v>2.1199711993002186</v>
-          </cell>
-          <cell r="I46">
-            <v>1000</v>
-          </cell>
-          <cell r="J46">
-            <v>96.49</v>
-          </cell>
-          <cell r="K46">
-            <v>1.88</v>
-          </cell>
-          <cell r="L46">
-            <v>2640</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47" t="str">
-            <v>RU000A1032P1</v>
-          </cell>
-          <cell r="C47" t="str">
-            <v>СФО ВТБ РКС-1, 01</v>
-          </cell>
-          <cell r="D47" t="str">
-            <v>RUB</v>
-          </cell>
-          <cell r="E47">
-            <v>47818</v>
-          </cell>
-          <cell r="F47">
-            <v>0.08</v>
-          </cell>
-          <cell r="G47">
-            <v>0.1061</v>
-          </cell>
-          <cell r="H47">
-            <v>2.7</v>
-          </cell>
-          <cell r="I47">
-            <v>1000</v>
-          </cell>
-          <cell r="J47">
-            <v>95.58</v>
-          </cell>
-          <cell r="K47">
-            <v>1.75</v>
-          </cell>
-          <cell r="L47">
-            <v>2649.9477544377046</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48" t="str">
-            <v>RU000A104V75</v>
-          </cell>
-          <cell r="C48" t="str">
-            <v>Почта России, БО-002P-01</v>
-          </cell>
-          <cell r="D48" t="str">
-            <v>RUB</v>
-          </cell>
-          <cell r="E48" t="str">
-            <v>26.05.2032 (07.06.2027)</v>
-          </cell>
-          <cell r="F48">
-            <v>0.114</v>
-          </cell>
-          <cell r="G48">
-            <v>9.0030623337480242E-2</v>
-          </cell>
-          <cell r="H48">
-            <v>3.4303758934176956</v>
-          </cell>
-          <cell r="I48">
-            <v>1000</v>
-          </cell>
-          <cell r="J48">
-            <v>109.82</v>
-          </cell>
-          <cell r="K48">
-            <v>29.05</v>
-          </cell>
-          <cell r="L48">
-            <v>2250</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49" t="str">
-            <v>RU000A103943</v>
-          </cell>
-          <cell r="C49" t="str">
-            <v>Аэрофлот, П01-БО-01</v>
-          </cell>
-          <cell r="D49" t="str">
-            <v>RUB</v>
-          </cell>
-          <cell r="E49">
-            <v>46184</v>
-          </cell>
-          <cell r="F49">
-            <v>8.3500000000000005E-2</v>
-          </cell>
-          <cell r="G49">
-            <v>9.5700588088832306E-2</v>
-          </cell>
-          <cell r="H49">
-            <v>2.9115280564271981</v>
-          </cell>
-          <cell r="I49">
-            <v>1000</v>
-          </cell>
-          <cell r="J49">
-            <v>97.19</v>
-          </cell>
-          <cell r="K49">
-            <v>19.45</v>
-          </cell>
-          <cell r="L49">
-            <v>2570</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50" t="str">
-            <v>RU000A104Y15</v>
-          </cell>
-          <cell r="C50" t="str">
-            <v>Белуга Групп, БО-П05</v>
-          </cell>
-          <cell r="D50" t="str">
-            <v>RUB</v>
-          </cell>
-          <cell r="E50">
-            <v>46574</v>
-          </cell>
-          <cell r="F50">
-            <v>0.1085</v>
-          </cell>
-          <cell r="G50">
-            <v>9.8563026836461828E-2</v>
-          </cell>
-          <cell r="H50">
-            <v>3.279749134839014</v>
-          </cell>
-          <cell r="I50">
-            <v>1000</v>
-          </cell>
-          <cell r="J50">
-            <v>104.32</v>
-          </cell>
-          <cell r="K50">
-            <v>17.54</v>
-          </cell>
-          <cell r="L50">
-            <v>2420</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51" t="str">
-            <v>RU000A103QK3</v>
-          </cell>
-          <cell r="C51" t="str">
-            <v>Мэйл.Ру Финанс, 001Р-01</v>
-          </cell>
-          <cell r="D51" t="str">
-            <v>RUB</v>
-          </cell>
-          <cell r="E51">
-            <v>46280</v>
-          </cell>
-          <cell r="F51">
-            <v>7.9000000000000001E-2</v>
-          </cell>
-          <cell r="G51">
-            <v>9.2973438894422694E-2</v>
-          </cell>
-          <cell r="H51">
-            <v>3.0919012173007627</v>
-          </cell>
-          <cell r="I51">
-            <v>1000</v>
-          </cell>
-          <cell r="J51">
-            <v>96.06</v>
-          </cell>
-          <cell r="K51">
-            <v>37.01</v>
-          </cell>
-          <cell r="L51">
-            <v>2550</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52" t="str">
-            <v>RU000A104JQ3</v>
-          </cell>
-          <cell r="C52" t="str">
-            <v>Группа компаний Самолет, БО-П11</v>
-          </cell>
-          <cell r="D52" t="str">
-            <v>RUB</v>
-          </cell>
-          <cell r="E52" t="str">
-            <v>08.02.2028 (14.02.2025)</v>
-          </cell>
-          <cell r="F52">
-            <v>0.127</v>
-          </cell>
-          <cell r="G52">
-            <v>0.13198355497401121</v>
-          </cell>
-          <cell r="H52">
-            <v>1.8969374136072388</v>
-          </cell>
-          <cell r="I52">
-            <v>1000</v>
-          </cell>
-          <cell r="J52">
-            <v>99.8</v>
-          </cell>
-          <cell r="K52">
-            <v>8.35</v>
-          </cell>
-          <cell r="L52">
-            <v>1270</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53" t="str">
-            <v>RU000A102T63</v>
-          </cell>
-          <cell r="C53" t="str">
-            <v>Группа ЛСР (ПАО), 001P-06</v>
-          </cell>
-          <cell r="D53" t="str">
-            <v>RUB</v>
-          </cell>
-          <cell r="E53">
-            <v>46077</v>
-          </cell>
-          <cell r="F53">
-            <v>0.08</v>
-          </cell>
-          <cell r="G53">
-            <v>0.10539378716144934</v>
-          </cell>
-          <cell r="H53">
-            <v>2.1585656067825068</v>
-          </cell>
-          <cell r="I53">
-            <v>1000</v>
-          </cell>
-          <cell r="J53">
-            <v>95.09</v>
-          </cell>
-          <cell r="K53">
-            <v>2.19</v>
-          </cell>
-          <cell r="L53">
-            <v>1340</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1231,7 +794,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1309,7 +872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="84" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="63" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1325,7 +888,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="6">
-        <v>97.4</v>
+        <v>98.04</v>
       </c>
       <c r="H2" s="6">
         <v>100.45</v>
@@ -1347,7 +910,7 @@
       </c>
       <c r="N2" s="10">
         <f t="shared" ref="N2:N3" si="0">L2/G2*100</f>
-        <v>8.3162217659137578</v>
+        <v>8.2619339045287639</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>21</v>
@@ -1356,7 +919,6 @@
         <v>12</v>
       </c>
       <c r="Q2" s="15">
-        <f>VLOOKUP(F2,'[1]1'!$B$42:$L$53,11,FALSE)</f>
         <v>2540</v>
       </c>
     </row>
@@ -1376,7 +938,7 @@
         <v>47</v>
       </c>
       <c r="G3" s="6">
-        <v>100</v>
+        <v>99.95</v>
       </c>
       <c r="H3" s="6">
         <v>100.2</v>
@@ -1398,7 +960,7 @@
       </c>
       <c r="N3" s="10">
         <f t="shared" si="0"/>
-        <v>9.5500000000000007</v>
+        <v>9.5547773886943475</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>49</v>
@@ -1407,7 +969,6 @@
         <v>45</v>
       </c>
       <c r="Q3" s="15">
-        <f>VLOOKUP(F3,'[1]1'!$B$42:$L$53,11,FALSE)</f>
         <v>2510</v>
       </c>
     </row>
@@ -1429,7 +990,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="6">
-        <v>99.4</v>
+        <v>99.87</v>
       </c>
       <c r="H4" s="6">
         <v>100.04</v>
@@ -1451,7 +1012,7 @@
       </c>
       <c r="N4" s="10">
         <f t="shared" ref="N4:N10" si="1">L4/G4*100</f>
-        <v>9.4064386317907438</v>
+        <v>9.3621708220686877</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>24</v>
@@ -1460,7 +1021,6 @@
         <v>12</v>
       </c>
       <c r="Q4" s="15">
-        <f>VLOOKUP(F4,'[1]1'!$B$42:$L$53,11,FALSE)</f>
         <v>2520</v>
       </c>
     </row>
@@ -1482,7 +1042,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="6">
-        <v>95.8</v>
+        <v>96.49</v>
       </c>
       <c r="H5" s="6">
         <v>102.1</v>
@@ -1504,7 +1064,7 @@
       </c>
       <c r="N5" s="10">
         <f t="shared" si="1"/>
-        <v>7.1503131524008348</v>
+        <v>7.099181262306975</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>51</v>
@@ -1513,7 +1073,6 @@
         <v>20</v>
       </c>
       <c r="Q5" s="15">
-        <f>VLOOKUP(F5,'[1]1'!$B$42:$L$53,11,FALSE)</f>
         <v>2640</v>
       </c>
     </row>
@@ -1535,7 +1094,7 @@
         <v>31</v>
       </c>
       <c r="G6" s="6">
-        <v>94.5</v>
+        <v>95.58</v>
       </c>
       <c r="H6" s="6">
         <v>100.87</v>
@@ -1555,7 +1114,7 @@
       </c>
       <c r="N6" s="10">
         <f t="shared" si="1"/>
-        <v>8.4656084656084651</v>
+        <v>8.3699518727767312</v>
       </c>
       <c r="O6" s="5" t="s">
         <v>35</v>
@@ -1564,7 +1123,6 @@
         <v>34</v>
       </c>
       <c r="Q6" s="15">
-        <f>VLOOKUP(F6,'[1]1'!$B$42:$L$53,11,FALSE)</f>
         <v>2649.9477544377046</v>
       </c>
     </row>
@@ -1586,7 +1144,7 @@
         <v>52</v>
       </c>
       <c r="G7" s="6">
-        <v>95.9</v>
+        <v>97.19</v>
       </c>
       <c r="H7" s="6">
         <v>102.7</v>
@@ -1608,7 +1166,7 @@
       </c>
       <c r="N7" s="10">
         <f t="shared" si="1"/>
-        <v>8.7069864442127205</v>
+        <v>8.5914188702541416</v>
       </c>
       <c r="O7" s="12" t="s">
         <v>54</v>
@@ -1617,7 +1175,6 @@
         <v>55</v>
       </c>
       <c r="Q7" s="15">
-        <f>VLOOKUP(F7,'[1]1'!$B$42:$L$53,11,FALSE)</f>
         <v>2570</v>
       </c>
     </row>
@@ -1639,7 +1196,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="6">
-        <v>102.8</v>
+        <v>104.32</v>
       </c>
       <c r="H8" s="6">
         <v>102.85</v>
@@ -1661,7 +1218,7 @@
       </c>
       <c r="N8" s="10">
         <f t="shared" si="1"/>
-        <v>10.554474708171206</v>
+        <v>10.400690184049081</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>44</v>
@@ -1670,7 +1227,6 @@
         <v>45</v>
       </c>
       <c r="Q8" s="15">
-        <f>VLOOKUP(F8,'[1]1'!$B$42:$L$53,11,FALSE)</f>
         <v>2420</v>
       </c>
     </row>
@@ -1692,7 +1248,7 @@
         <v>57</v>
       </c>
       <c r="G9" s="6">
-        <v>95.5</v>
+        <v>96.06</v>
       </c>
       <c r="H9" s="6">
         <v>100.01</v>
@@ -1714,7 +1270,7 @@
       </c>
       <c r="N9" s="10">
         <f t="shared" si="1"/>
-        <v>8.2722513089005254</v>
+        <v>8.2240266500104102</v>
       </c>
       <c r="O9" s="5" t="s">
         <v>60</v>
@@ -1723,7 +1279,6 @@
         <v>59</v>
       </c>
       <c r="Q9" s="15">
-        <f>VLOOKUP(F9,'[1]1'!$B$42:$L$53,11,FALSE)</f>
         <v>2550</v>
       </c>
     </row>
@@ -1745,7 +1300,7 @@
         <v>62</v>
       </c>
       <c r="G10" s="6">
-        <v>94.2</v>
+        <v>95.09</v>
       </c>
       <c r="H10" s="6">
         <v>100.7</v>
@@ -1767,7 +1322,7 @@
       </c>
       <c r="N10" s="10">
         <f t="shared" si="1"/>
-        <v>8.4925690021231421</v>
+        <v>8.4130823430434312</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>66</v>
@@ -1776,7 +1331,6 @@
         <v>65</v>
       </c>
       <c r="Q10" s="15">
-        <f>VLOOKUP(F10,'[1]1'!$B$42:$L$53,11,FALSE)</f>
         <v>1340</v>
       </c>
     </row>
@@ -1798,7 +1352,7 @@
         <v>37</v>
       </c>
       <c r="G11" s="6">
-        <v>99.2</v>
+        <v>99.8</v>
       </c>
       <c r="H11" s="6">
         <v>100.23</v>
@@ -1828,7 +1382,6 @@
         <v>38</v>
       </c>
       <c r="Q11" s="15">
-        <f>VLOOKUP(F11,'[1]1'!$B$42:$L$53,11,FALSE)</f>
         <v>1270</v>
       </c>
     </row>
@@ -1850,7 +1403,7 @@
         <v>84</v>
       </c>
       <c r="G12" s="6">
-        <v>102.4</v>
+        <v>103.66</v>
       </c>
       <c r="H12" s="6">
         <v>102.49</v>
@@ -1872,7 +1425,7 @@
       </c>
       <c r="N12" s="10">
         <f t="shared" ref="N12:N13" si="2">L12/G12*100</f>
-        <v>10.546875</v>
+        <v>10.418676442214934</v>
       </c>
       <c r="O12" s="5" t="s">
         <v>86</v>
@@ -1881,7 +1434,6 @@
         <v>45</v>
       </c>
       <c r="Q12" s="15">
-        <f>VLOOKUP(F12,'[1]1'!$B$42:$L$53,11,FALSE)</f>
         <v>2440</v>
       </c>
     </row>
@@ -1901,7 +1453,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="6">
-        <v>109</v>
+        <v>109.82</v>
       </c>
       <c r="H13" s="6">
         <v>111.21</v>
@@ -1923,7 +1475,7 @@
       </c>
       <c r="N13" s="10">
         <f t="shared" si="2"/>
-        <v>10.458715596330276</v>
+        <v>10.380622837370243</v>
       </c>
       <c r="O13" s="5" t="s">
         <v>23</v>
@@ -1932,7 +1484,6 @@
         <v>12</v>
       </c>
       <c r="Q13" s="15">
-        <f>VLOOKUP(F13,'[1]1'!$B$42:$L$53,11,FALSE)</f>
         <v>2250</v>
       </c>
     </row>
@@ -1952,7 +1503,7 @@
         <v>81</v>
       </c>
       <c r="G14" s="6">
-        <v>130.02000000000001</v>
+        <v>131.26</v>
       </c>
       <c r="H14" s="6">
         <v>130.16</v>

--- a/Ребалансировка Ставицкий.xlsx
+++ b/Ребалансировка Ставицкий.xlsx
@@ -794,7 +794,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1385,7 +1385,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="126" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="105" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1525,7 +1525,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="15">
-        <v>36500</v>
+        <v>38000</v>
       </c>
     </row>
   </sheetData>
